--- a/settings.xlsx
+++ b/settings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://numberskills-my.sharepoint.com/personal/michaelr_numberskills_se/Documents/Documents/GitHub/Marbit-Excel-projectDataTranscript/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://numberskills-my.sharepoint.com/personal/michaelr_numberskills_se/Documents/Desktop/Marbit draft directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{62BA04F3-7AF1-4560-AE23-CC3265161922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D855A799-8114-49A0-BFA5-87668D6736CB}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{62BA04F3-7AF1-4560-AE23-CC3265161922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{497905A7-38F3-4DEA-9156-F84F2555357A}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1095" windowWidth="32670" windowHeight="20505" xr2:uid="{A5895944-EFEF-455C-BF65-6041DDE715B0}"/>
+    <workbookView xWindow="43950" yWindow="1560" windowWidth="25560" windowHeight="20505" xr2:uid="{A5895944-EFEF-455C-BF65-6041DDE715B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
-    <t>18746 Kv Påsen o Godsvagnen//SG//18476</t>
-  </si>
-  <si>
     <t>19808 Nockeby Torget//SG//19808</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>19932 Sopsugsled Skarpnäck//MH//19932</t>
   </si>
   <si>
-    <t>19942 Olovslund Station 'Lekplats'//SG//19942</t>
-  </si>
-  <si>
     <t>Filter stora projekt</t>
   </si>
   <si>
@@ -141,6 +135,12 @@
   </si>
   <si>
     <t>19913 Slammertorpsvägen Park//PH//19913</t>
+  </si>
+  <si>
+    <t>18746 Kv Påsen o Godsvagnen//SG//18746</t>
+  </si>
+  <si>
+    <t>19942 Olovslund Station "Lekplats"//SG//19942</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,151 +528,151 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
